--- a/Data/EC/NIT-9002973638.xlsx
+++ b/Data/EC/NIT-9002973638.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{725BA1DF-C73D-485C-AE95-33931CBB10CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D14F3BEA-B510-4EFB-A53F-231DC3A864FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C96FFF16-E1B9-42C6-90B7-0A46BFEA98A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B0D9F8F-A850-4EB3-BEB6-82F551754741}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,21 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143343913</t>
+  </si>
+  <si>
+    <t>SANDRA MILENA CASTILLO ORTIZ</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
     <t>1048943696</t>
   </si>
   <si>
@@ -72,21 +87,6 @@
   </si>
   <si>
     <t>1808</t>
-  </si>
-  <si>
-    <t>1143343913</t>
-  </si>
-  <si>
-    <t>SANDRA MILENA CASTILLO ORTIZ</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -500,7 +500,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C86D46-49B3-6989-38EF-DE90F7B4531F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B470AB5-1087-07DB-A292-DC4DA18EF62E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -851,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050EDDC8-E095-4AC7-886B-52DF857B19CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF57FE1A-2F0F-4342-AD6F-5FEEE869AB5B}">
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1029,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16666</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1043,16 +1043,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>9333</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
         <v>1300000</v>
@@ -1066,16 +1066,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>9333</v>
       </c>
       <c r="G18" s="18">
         <v>1300000</v>
@@ -1089,19 +1089,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="24">
-        <v>40000</v>
+        <v>16666</v>
       </c>
       <c r="G19" s="24">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>

--- a/Data/EC/NIT-9002973638.xlsx
+++ b/Data/EC/NIT-9002973638.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D14F3BEA-B510-4EFB-A53F-231DC3A864FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43AC534-809B-46EA-B344-1E2EC277F844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B0D9F8F-A850-4EB3-BEB6-82F551754741}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4B1FE27E-3BEA-4B2D-AD3F-0C4DD81EBB78}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,28 +65,28 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1048943696</t>
+  </si>
+  <si>
+    <t>ADA LUZ UTRIA NAVARRO</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
     <t>1143343913</t>
   </si>
   <si>
     <t>SANDRA MILENA CASTILLO ORTIZ</t>
   </si>
   <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
     <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>1048943696</t>
-  </si>
-  <si>
-    <t>ADA LUZ UTRIA NAVARRO</t>
-  </si>
-  <si>
-    <t>1808</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -185,22 +185,22 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -400,23 +400,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,10 +444,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -500,7 +500,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B470AB5-1087-07DB-A292-DC4DA18EF62E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575E0CCD-F1F5-86E0-4582-A8CAB2DA6852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -851,7 +851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF57FE1A-2F0F-4342-AD6F-5FEEE869AB5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17139D73-8279-44A9-8FAF-A67B9968103D}">
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1029,10 +1029,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>16666</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1043,19 +1043,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>9333</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1066,19 +1066,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>9333</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1089,19 +1089,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="24">
-        <v>16666</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="24">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
